--- a/AjayAutoMavenPOM25/src/main/java/testoutput/TestResults.xlsx
+++ b/AjayAutoMavenPOM25/src/main/java/testoutput/TestResults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>ajay22-qa</t>
   </si>
@@ -1065,7 +1065,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -1352,6 +1352,98 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
